--- a/data/trans_orig/IP40A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP40A-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13554133-F039-4E97-9A26-AC57BD7B6558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D03F2CB0-E68B-488A-9770-F508CB037A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FC25890-0978-4846-BCAB-9559BAD8EF74}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{02D2B2EF-8092-49E3-AE0E-CC391672D389}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="537">
   <si>
     <t>Adultos según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2012 (Tasa respuesta: 75,94%)</t>
   </si>
@@ -135,7 +135,7 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>7,3%</t>
+    <t>7,43%</t>
   </si>
   <si>
     <t>1,46%</t>
@@ -144,7 +144,7 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>3,96%</t>
   </si>
   <si>
     <t>3,2%</t>
@@ -153,1486 +153,1498 @@
     <t>1,02%</t>
   </si>
   <si>
-    <t>8,94%</t>
+    <t>9,31%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2016 (Tasa respuesta: 78,03%)</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2015 (Tasa respuesta: 78,03%)</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
   </si>
   <si>
     <t>1,06%</t>
@@ -2047,7 +2059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DB57C6-C9C6-46CA-AE3D-3DBCB079864A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF9735F-4BA6-4998-B09D-039517FD2B4C}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3086,13 +3098,13 @@
         <v>627</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3101,13 +3113,13 @@
         <v>1904</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,7 +3175,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3175,13 +3187,13 @@
         <v>2571</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3190,13 +3202,13 @@
         <v>2323</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -3205,13 +3217,13 @@
         <v>4893</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3238,13 @@
         <v>7675</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3241,13 +3253,13 @@
         <v>1919</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -3256,13 +3268,13 @@
         <v>9594</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3289,13 @@
         <v>7159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -3292,13 +3304,13 @@
         <v>9638</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -3307,13 +3319,13 @@
         <v>16797</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3340,13 @@
         <v>33982</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H27" s="7">
         <v>39</v>
@@ -3343,13 +3355,13 @@
         <v>27100</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M27" s="7">
         <v>88</v>
@@ -3358,13 +3370,13 @@
         <v>61083</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3391,13 @@
         <v>79409</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H28" s="7">
         <v>98</v>
@@ -3394,13 +3406,13 @@
         <v>68576</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>213</v>
@@ -3409,13 +3421,13 @@
         <v>147985</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3442,13 @@
         <v>143049</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H29" s="7">
         <v>235</v>
@@ -3445,13 +3457,13 @@
         <v>160860</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M29" s="7">
         <v>441</v>
@@ -3460,13 +3472,13 @@
         <v>303909</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3493,13 @@
         <v>78429</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H30" s="7">
         <v>111</v>
@@ -3496,10 +3508,10 @@
         <v>77831</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>147</v>
@@ -3538,7 +3550,7 @@
         <v>152</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -3547,13 +3559,13 @@
         <v>10273</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M31" s="7">
         <v>38</v>
@@ -3562,13 +3574,13 @@
         <v>27937</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3595,13 @@
         <v>3471</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -3598,13 +3610,13 @@
         <v>2381</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -3613,13 +3625,13 @@
         <v>5852</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,7 +3687,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3693,7 +3705,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3702,13 +3714,13 @@
         <v>1089</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -3717,13 +3729,13 @@
         <v>1089</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3750,13 @@
         <v>7867</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -3753,13 +3765,13 @@
         <v>8718</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M35" s="7">
         <v>24</v>
@@ -3768,13 +3780,13 @@
         <v>16585</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3801,13 @@
         <v>17585</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -3804,13 +3816,13 @@
         <v>15105</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>47</v>
@@ -3819,13 +3831,13 @@
         <v>32690</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3852,13 @@
         <v>30644</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H37" s="7">
         <v>33</v>
@@ -3855,13 +3867,13 @@
         <v>23139</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M37" s="7">
         <v>77</v>
@@ -3870,13 +3882,13 @@
         <v>53783</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3903,13 @@
         <v>28543</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H38" s="7">
         <v>52</v>
@@ -3906,13 +3918,13 @@
         <v>36679</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M38" s="7">
         <v>95</v>
@@ -3921,13 +3933,13 @@
         <v>65223</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3954,13 @@
         <v>27240</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H39" s="7">
         <v>36</v>
@@ -3957,13 +3969,13 @@
         <v>26595</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M39" s="7">
         <v>75</v>
@@ -3972,13 +3984,13 @@
         <v>53834</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +4005,13 @@
         <v>7401</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H40" s="7">
         <v>8</v>
@@ -4008,13 +4020,13 @@
         <v>5979</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M40" s="7">
         <v>17</v>
@@ -4023,13 +4035,13 @@
         <v>13381</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4056,13 @@
         <v>2611</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -4059,13 +4071,13 @@
         <v>568</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -4074,13 +4086,13 @@
         <v>3179</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,7 +4113,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -4110,13 +4122,13 @@
         <v>698</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -4125,13 +4137,13 @@
         <v>698</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,10 +4214,10 @@
         <v>34</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H44" s="7">
         <v>4</v>
@@ -4214,13 +4226,13 @@
         <v>3411</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M44" s="7">
         <v>8</v>
@@ -4229,13 +4241,13 @@
         <v>5982</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4262,13 @@
         <v>15542</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H45" s="7">
         <v>16</v>
@@ -4265,13 +4277,13 @@
         <v>10637</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M45" s="7">
         <v>38</v>
@@ -4280,13 +4292,13 @@
         <v>26179</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>244</v>
+        <v>106</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>246</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4313,13 @@
         <v>24745</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H46" s="7">
         <v>38</v>
@@ -4316,13 +4328,13 @@
         <v>26754</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M46" s="7">
         <v>75</v>
@@ -4331,13 +4343,13 @@
         <v>51499</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>254</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4364,13 @@
         <v>66655</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H47" s="7">
         <v>75</v>
@@ -4367,13 +4379,13 @@
         <v>52349</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M47" s="7">
         <v>171</v>
@@ -4382,13 +4394,13 @@
         <v>119004</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,10 +4415,10 @@
         <v>112436</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>265</v>
+        <v>144</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>266</v>
@@ -4424,7 +4436,7 @@
         <v>268</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="M48" s="7">
         <v>323</v>
@@ -4433,13 +4445,13 @@
         <v>223358</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4466,13 @@
         <v>203749</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H49" s="7">
         <v>314</v>
@@ -4469,13 +4481,13 @@
         <v>217895</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M49" s="7">
         <v>605</v>
@@ -4484,13 +4496,13 @@
         <v>421644</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,7 +4517,7 @@
         <v>104155</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>282</v>
@@ -4556,13 +4568,13 @@
         <v>24700</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>290</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="H51" s="7">
         <v>24</v>
@@ -4571,13 +4583,13 @@
         <v>17146</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M51" s="7">
         <v>57</v>
@@ -4586,13 +4598,13 @@
         <v>41846</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,10 +4622,10 @@
         <v>31</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
@@ -4622,10 +4634,10 @@
         <v>3706</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>299</v>
@@ -4643,7 +4655,7 @@
         <v>301</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,7 +4731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EE52F3-CC04-4221-9EDF-893BC2765A63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDCBC12-98F6-4B6E-A655-60C498C50EF8}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5502,10 +5514,10 @@
         <v>311</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -5514,13 +5526,13 @@
         <v>1965</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -5529,13 +5541,13 @@
         <v>7108</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5562,13 @@
         <v>12876</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>192</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5571,7 +5583,7 @@
         <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -5580,13 +5592,13 @@
         <v>20085</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5613,13 @@
         <v>28078</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -5616,13 +5628,13 @@
         <v>25118</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -5631,13 +5643,13 @@
         <v>53197</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5664,13 @@
         <v>10170</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -5667,13 +5679,13 @@
         <v>9378</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -5682,13 +5694,13 @@
         <v>19547</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5715,13 @@
         <v>1931</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>344</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -5718,13 +5730,13 @@
         <v>3603</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -5733,10 +5745,10 @@
         <v>5534</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>351</v>
@@ -5795,7 +5807,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5813,7 +5825,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>352</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5822,13 +5834,13 @@
         <v>1285</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5837,13 +5849,13 @@
         <v>1285</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5870,13 @@
         <v>2247</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5873,13 +5885,13 @@
         <v>705</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -5888,13 +5900,13 @@
         <v>2952</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,10 +5924,10 @@
         <v>307</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -5924,13 +5936,13 @@
         <v>5130</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -5939,13 +5951,13 @@
         <v>9986</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5972,13 @@
         <v>29178</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H27" s="7">
         <v>40</v>
@@ -5975,13 +5987,13 @@
         <v>25809</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M27" s="7">
         <v>81</v>
@@ -5990,13 +6002,13 @@
         <v>54986</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>374</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6023,13 @@
         <v>66863</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>377</v>
+        <v>64</v>
       </c>
       <c r="H28" s="7">
         <v>91</v>
@@ -6026,13 +6038,13 @@
         <v>59655</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M28" s="7">
         <v>185</v>
@@ -6041,13 +6053,13 @@
         <v>126518</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6074,13 @@
         <v>148640</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H29" s="7">
         <v>204</v>
@@ -6077,13 +6089,13 @@
         <v>137493</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M29" s="7">
         <v>418</v>
@@ -6092,13 +6104,13 @@
         <v>286133</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6125,13 @@
         <v>108733</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H30" s="7">
         <v>169</v>
@@ -6128,7 +6140,7 @@
         <v>111780</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>396</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>397</v>
@@ -6170,7 +6182,7 @@
         <v>403</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>261</v>
+        <v>404</v>
       </c>
       <c r="H31" s="7">
         <v>35</v>
@@ -6179,13 +6191,13 @@
         <v>22538</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M31" s="7">
         <v>81</v>
@@ -6194,13 +6206,13 @@
         <v>55338</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,13 +6227,13 @@
         <v>4090</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>107</v>
+        <v>408</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>301</v>
+        <v>34</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>105</v>
+        <v>409</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -6230,13 +6242,13 @@
         <v>7078</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M32" s="7">
         <v>19</v>
@@ -6245,13 +6257,13 @@
         <v>11168</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>412</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>413</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,7 +6319,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6319,13 +6331,13 @@
         <v>759</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>414</v>
+        <v>227</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6334,13 +6346,13 @@
         <v>753</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>248</v>
+        <v>414</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6349,13 +6361,13 @@
         <v>1512</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>416</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,13 +6382,13 @@
         <v>9629</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -6385,13 +6397,13 @@
         <v>7707</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M35" s="7">
         <v>25</v>
@@ -6400,10 +6412,10 @@
         <v>17337</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>423</v>
@@ -6424,10 +6436,10 @@
         <v>424</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>186</v>
+        <v>425</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -6436,10 +6448,10 @@
         <v>13641</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>427</v>
+        <v>117</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>428</v>
@@ -6457,7 +6469,7 @@
         <v>430</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,13 +6484,13 @@
         <v>27272</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H37" s="7">
         <v>35</v>
@@ -6487,13 +6499,13 @@
         <v>24926</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M37" s="7">
         <v>74</v>
@@ -6508,7 +6520,7 @@
         <v>438</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>342</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,13 +6535,13 @@
         <v>36296</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H38" s="7">
         <v>47</v>
@@ -6538,13 +6550,13 @@
         <v>29832</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M38" s="7">
         <v>100</v>
@@ -6553,10 +6565,10 @@
         <v>66129</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>446</v>
+        <v>148</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>447</v>
@@ -6625,13 +6637,13 @@
         <v>14955</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="H40" s="7">
         <v>16</v>
@@ -6640,13 +6652,13 @@
         <v>10638</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M40" s="7">
         <v>36</v>
@@ -6655,13 +6667,13 @@
         <v>25593</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6688,13 @@
         <v>525</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>301</v>
+        <v>464</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -6691,13 +6703,13 @@
         <v>2349</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -6706,13 +6718,13 @@
         <v>2873</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>98</v>
+        <v>468</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>229</v>
+        <v>469</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6739,13 @@
         <v>1397</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>107</v>
+        <v>408</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -6748,7 +6760,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>471</v>
+        <v>246</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -6757,7 +6769,7 @@
         <v>1397</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
@@ -6837,7 +6849,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>91</v>
+        <v>474</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -6846,13 +6858,13 @@
         <v>2038</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>474</v>
+        <v>236</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
@@ -6861,13 +6873,13 @@
         <v>2797</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>298</v>
+        <v>475</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,13 +6894,13 @@
         <v>11876</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H45" s="7">
         <v>12</v>
@@ -6897,13 +6909,13 @@
         <v>8413</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>154</v>
+        <v>480</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>300</v>
+        <v>481</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>350</v>
+        <v>482</v>
       </c>
       <c r="M45" s="7">
         <v>30</v>
@@ -6912,13 +6924,13 @@
         <v>20289</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>479</v>
+        <v>94</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>235</v>
+        <v>483</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>360</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,13 +6945,13 @@
         <v>25249</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>291</v>
+        <v>486</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="H46" s="7">
         <v>28</v>
@@ -6948,13 +6960,13 @@
         <v>18772</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="M46" s="7">
         <v>64</v>
@@ -6963,13 +6975,13 @@
         <v>44020</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>370</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,13 +6996,13 @@
         <v>57167</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="H47" s="7">
         <v>75</v>
@@ -6999,13 +7011,13 @@
         <v>50734</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>51</v>
+        <v>497</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="M47" s="7">
         <v>156</v>
@@ -7014,13 +7026,13 @@
         <v>107902</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7047,13 @@
         <v>108301</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="H48" s="7">
         <v>141</v>
@@ -7050,13 +7062,13 @@
         <v>91453</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="M48" s="7">
         <v>295</v>
@@ -7065,13 +7077,13 @@
         <v>199754</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7098,13 @@
         <v>185925</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="H49" s="7">
         <v>261</v>
@@ -7101,13 +7113,13 @@
         <v>175672</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="M49" s="7">
         <v>530</v>
@@ -7116,13 +7128,13 @@
         <v>361597</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,13 +7149,13 @@
         <v>151766</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="H50" s="7">
         <v>221</v>
@@ -7152,13 +7164,13 @@
         <v>147537</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="M50" s="7">
         <v>436</v>
@@ -7167,13 +7179,13 @@
         <v>299302</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>518</v>
+        <v>397</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>520</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,13 +7200,13 @@
         <v>43494</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="H51" s="7">
         <v>54</v>
@@ -7203,13 +7215,13 @@
         <v>34264</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M51" s="7">
         <v>115</v>
@@ -7218,13 +7230,13 @@
         <v>77758</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>526</v>
+        <v>117</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7239,13 +7251,13 @@
         <v>7418</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>27</v>
+        <v>368</v>
       </c>
       <c r="H52" s="7">
         <v>18</v>
@@ -7254,13 +7266,13 @@
         <v>10681</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>531</v>
+        <v>483</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>343</v>
+        <v>534</v>
       </c>
       <c r="M52" s="7">
         <v>29</v>
@@ -7269,13 +7281,13 @@
         <v>18099</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>237</v>
+        <v>535</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>169</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
